--- a/Instruction.xlsx
+++ b/Instruction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAO LU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAO LU\Dropbox\接受论文相关\aaai2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A0A75F-1488-49E2-AEA2-BEB3730697ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A17E3F-25A1-4285-9A40-B6E549DDFE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="2685" windowWidth="12705" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1. Run pilot_single_channel</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Table 3</t>
+  </si>
+  <si>
+    <t>Data and Code: https://www.dropbox.com/s/b7bca82ug1112km/aaai2021_cr.rar?dl=0</t>
   </si>
 </sst>
 </file>
@@ -405,104 +408,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
